--- a/PlanInUbuntu_Oct2nd_4:57Pm.xlsx
+++ b/PlanInUbuntu_Oct2nd_4:57Pm.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t xml:space="preserve">LoginService</t>
   </si>
@@ -243,22 +243,37 @@
     <t xml:space="preserve">        status:Status</t>
   </si>
   <si>
+    <t xml:space="preserve">[ {path: ‘login’, component: LoginComponent },</t>
+  </si>
+  <si>
     <t xml:space="preserve">        assigned_to:User</t>
   </si>
   <si>
+    <t xml:space="preserve">{path: ‘user’, </t>
+  </si>
+  <si>
     <t xml:space="preserve">changePrioritry</t>
   </si>
   <si>
     <t xml:space="preserve">        start_date:Date</t>
   </si>
   <si>
+    <t xml:space="preserve">{path: ‘serviceEngineer’, </t>
+  </si>
+  <si>
     <t xml:space="preserve">Route: /changePriority</t>
   </si>
   <si>
     <t xml:space="preserve">        requested_end_date:Date</t>
   </si>
   <si>
+    <t xml:space="preserve">{path: ‘’, </t>
+  </si>
+  <si>
     <t xml:space="preserve">        closed_date:Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{path: ‘**’, PageNotFoundComponent}</t>
   </si>
   <si>
     <t xml:space="preserve">        message:string</t>
@@ -280,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -318,6 +333,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,6 +408,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -406,15 +431,15 @@
   </sheetPr>
   <dimension ref="A2:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.71"/>
@@ -792,31 +817,46 @@
       <c r="A55" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C55" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -824,20 +864,20 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -867,7 +907,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -893,7 +933,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
